--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H2">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I2">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J2">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>109.5161148606453</v>
+        <v>24.02163809999645</v>
       </c>
       <c r="R2">
-        <v>985.6450337458081</v>
+        <v>216.194742899968</v>
       </c>
       <c r="S2">
-        <v>0.03578152496895948</v>
+        <v>0.0093637894823126</v>
       </c>
       <c r="T2">
-        <v>0.03578152496895947</v>
+        <v>0.0093637894823126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H3">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I3">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J3">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>115.434041919132</v>
+        <v>25.990990896136</v>
       </c>
       <c r="R3">
-        <v>1038.906377272188</v>
+        <v>233.918918065224</v>
       </c>
       <c r="S3">
-        <v>0.03771505278883482</v>
+        <v>0.01013145590550533</v>
       </c>
       <c r="T3">
-        <v>0.03771505278883482</v>
+        <v>0.01013145590550533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H4">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I4">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J4">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>74.58067645976934</v>
+        <v>11.20437541112089</v>
       </c>
       <c r="R4">
-        <v>671.2260881379241</v>
+        <v>100.839378700088</v>
       </c>
       <c r="S4">
-        <v>0.0243672845803818</v>
+        <v>0.004367537808778794</v>
       </c>
       <c r="T4">
-        <v>0.0243672845803818</v>
+        <v>0.004367537808778795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H5">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I5">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J5">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>39.95966075801334</v>
+        <v>8.798487097039111</v>
       </c>
       <c r="R5">
-        <v>359.63694682212</v>
+        <v>79.186383873352</v>
       </c>
       <c r="S5">
-        <v>0.01305577358166318</v>
+        <v>0.003429707024831505</v>
       </c>
       <c r="T5">
-        <v>0.01305577358166318</v>
+        <v>0.003429707024831506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H6">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I6">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J6">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>58.17106402977734</v>
+        <v>10.50526804887467</v>
       </c>
       <c r="R6">
-        <v>523.539576267996</v>
+        <v>94.54741243987201</v>
       </c>
       <c r="S6">
-        <v>0.019005873087271</v>
+        <v>0.004095021249401878</v>
       </c>
       <c r="T6">
-        <v>0.019005873087271</v>
+        <v>0.004095021249401879</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>11.988124</v>
       </c>
       <c r="I7">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J7">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>654.1998601540604</v>
+        <v>637.3032067743432</v>
       </c>
       <c r="R7">
-        <v>5887.798741386543</v>
+        <v>5735.728860969088</v>
       </c>
       <c r="S7">
-        <v>0.2137426867322526</v>
+        <v>0.2484249009079264</v>
       </c>
       <c r="T7">
-        <v>0.2137426867322525</v>
+        <v>0.2484249009079264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>11.988124</v>
       </c>
       <c r="I8">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J8">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>689.5508864298758</v>
@@ -948,10 +948,10 @@
         <v>6205.957977868883</v>
       </c>
       <c r="S8">
-        <v>0.2252927095848345</v>
+        <v>0.2687913834599131</v>
       </c>
       <c r="T8">
-        <v>0.2252927095848344</v>
+        <v>0.268791383459913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>11.988124</v>
       </c>
       <c r="I9">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J9">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>445.5113128534591</v>
+        <v>297.2563465358342</v>
       </c>
       <c r="R9">
-        <v>4009.601815681132</v>
+        <v>2675.307118822508</v>
       </c>
       <c r="S9">
-        <v>0.1455591643759853</v>
+        <v>0.1158724413237799</v>
       </c>
       <c r="T9">
-        <v>0.1455591643759853</v>
+        <v>0.1158724413237799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>11.988124</v>
       </c>
       <c r="I10">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J10">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>238.7009849003511</v>
+        <v>233.4272133467258</v>
       </c>
       <c r="R10">
-        <v>2148.30886410316</v>
+        <v>2100.844920120532</v>
       </c>
       <c r="S10">
-        <v>0.07798930104665695</v>
+        <v>0.09099143347854922</v>
       </c>
       <c r="T10">
-        <v>0.07798930104665694</v>
+        <v>0.09099143347854922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>11.988124</v>
       </c>
       <c r="I11">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J11">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>347.4876916672698</v>
+        <v>278.7087619795947</v>
       </c>
       <c r="R11">
-        <v>3127.389225005428</v>
+        <v>2508.378857816352</v>
       </c>
       <c r="S11">
-        <v>0.1135325110064376</v>
+        <v>0.1086424732230597</v>
       </c>
       <c r="T11">
-        <v>0.1135325110064376</v>
+        <v>0.1086424732230597</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H12">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I12">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J12">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>24.67881779973511</v>
+        <v>78.07436407713423</v>
       </c>
       <c r="R12">
-        <v>222.109360197616</v>
+        <v>702.6692766942081</v>
       </c>
       <c r="S12">
-        <v>0.008063157978433239</v>
+        <v>0.03043389073386392</v>
       </c>
       <c r="T12">
-        <v>0.008063157978433237</v>
+        <v>0.03043389073386391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H13">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I13">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J13">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>26.012388149764</v>
+        <v>84.475091894366</v>
       </c>
       <c r="R13">
-        <v>234.111493347876</v>
+        <v>760.275827049294</v>
       </c>
       <c r="S13">
-        <v>0.00849886719655279</v>
+        <v>0.03292893572474443</v>
       </c>
       <c r="T13">
-        <v>0.008498867196552788</v>
+        <v>0.03292893572474442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H14">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I14">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J14">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>16.80632049514978</v>
+        <v>36.41610457468644</v>
       </c>
       <c r="R14">
-        <v>151.256884456348</v>
+        <v>327.744941172178</v>
       </c>
       <c r="S14">
-        <v>0.005491025473271557</v>
+        <v>0.01419523246432121</v>
       </c>
       <c r="T14">
-        <v>0.005491025473271556</v>
+        <v>0.01419523246432121</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H15">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I15">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J15">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>9.004676512137777</v>
+        <v>28.59656290227356</v>
       </c>
       <c r="R15">
-        <v>81.04208860924</v>
+        <v>257.369066120462</v>
       </c>
       <c r="S15">
-        <v>0.002942042437009824</v>
+        <v>0.01114712468067028</v>
       </c>
       <c r="T15">
-        <v>0.002942042437009823</v>
+        <v>0.01114712468067028</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H16">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I16">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J16">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>13.10851003283245</v>
+        <v>34.14388806298134</v>
       </c>
       <c r="R16">
-        <v>117.976590295492</v>
+        <v>307.294992566832</v>
       </c>
       <c r="S16">
-        <v>0.004282862660371827</v>
+        <v>0.01330950781118673</v>
       </c>
       <c r="T16">
-        <v>0.004282862660371825</v>
+        <v>0.01330950781118673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H17">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I17">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J17">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>43.51420913630578</v>
+        <v>25.92550060126934</v>
       </c>
       <c r="R17">
-        <v>391.627882226752</v>
+        <v>233.329505411424</v>
       </c>
       <c r="S17">
-        <v>0.0142171292571552</v>
+        <v>0.01010592736612291</v>
       </c>
       <c r="T17">
-        <v>0.01421712925715519</v>
+        <v>0.01010592736612291</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H18">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I18">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J18">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>45.865588346608</v>
+        <v>28.050936713823</v>
       </c>
       <c r="R18">
-        <v>412.790295119472</v>
+        <v>252.458430424407</v>
       </c>
       <c r="S18">
-        <v>0.01498538088872541</v>
+        <v>0.01093443607286512</v>
       </c>
       <c r="T18">
-        <v>0.0149853808887254</v>
+        <v>0.01093443607286512</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,13 +1579,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H19">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I19">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J19">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>29.63325677802844</v>
+        <v>12.09239104546767</v>
       </c>
       <c r="R19">
-        <v>266.699311002256</v>
+        <v>108.831519409209</v>
       </c>
       <c r="S19">
-        <v>0.00968189127840984</v>
+        <v>0.004713692031168264</v>
       </c>
       <c r="T19">
-        <v>0.00968189127840984</v>
+        <v>0.004713692031168264</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H20">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I20">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J20">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>15.87723448236444</v>
+        <v>9.495821291412334</v>
       </c>
       <c r="R20">
-        <v>142.89511034128</v>
+        <v>85.46239162271101</v>
       </c>
       <c r="S20">
-        <v>0.005187470928745472</v>
+        <v>0.003701532391933755</v>
       </c>
       <c r="T20">
-        <v>0.005187470928745472</v>
+        <v>0.003701532391933755</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H21">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I21">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J21">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>23.11319981624711</v>
+        <v>11.337875126744</v>
       </c>
       <c r="R21">
-        <v>208.018798346224</v>
+        <v>102.040876140696</v>
       </c>
       <c r="S21">
-        <v>0.007551633267761106</v>
+        <v>0.004419576859065029</v>
       </c>
       <c r="T21">
-        <v>0.007551633267761104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.201677</v>
-      </c>
-      <c r="I22">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J22">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>163.7119853333333</v>
-      </c>
-      <c r="N22">
-        <v>491.135956</v>
-      </c>
-      <c r="O22">
-        <v>0.2754003062401034</v>
-      </c>
-      <c r="P22">
-        <v>0.2754003062401033</v>
-      </c>
-      <c r="Q22">
-        <v>11.00564735535689</v>
-      </c>
-      <c r="R22">
-        <v>99.05082619821199</v>
-      </c>
-      <c r="S22">
-        <v>0.003595807303302878</v>
-      </c>
-      <c r="T22">
-        <v>0.003595807303302877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.201677</v>
-      </c>
-      <c r="I23">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J23">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>172.558497</v>
-      </c>
-      <c r="N23">
-        <v>517.675491</v>
-      </c>
-      <c r="O23">
-        <v>0.290282124557779</v>
-      </c>
-      <c r="P23">
-        <v>0.290282124557779</v>
-      </c>
-      <c r="Q23">
-        <v>11.600359999823</v>
-      </c>
-      <c r="R23">
-        <v>104.403239998407</v>
-      </c>
-      <c r="S23">
-        <v>0.003790114098831533</v>
-      </c>
-      <c r="T23">
-        <v>0.003790114098831532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.201677</v>
-      </c>
-      <c r="I24">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J24">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>111.4881643333333</v>
-      </c>
-      <c r="N24">
-        <v>334.464493</v>
-      </c>
-      <c r="O24">
-        <v>0.1875481171218523</v>
-      </c>
-      <c r="P24">
-        <v>0.1875481171218523</v>
-      </c>
-      <c r="Q24">
-        <v>7.494866172751222</v>
-      </c>
-      <c r="R24">
-        <v>67.453795554761</v>
-      </c>
-      <c r="S24">
-        <v>0.002448751413803827</v>
-      </c>
-      <c r="T24">
-        <v>0.002448751413803827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.201677</v>
-      </c>
-      <c r="I25">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J25">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>59.73436333333333</v>
-      </c>
-      <c r="N25">
-        <v>179.20309</v>
-      </c>
-      <c r="O25">
-        <v>0.100486607144627</v>
-      </c>
-      <c r="P25">
-        <v>0.100486607144627</v>
-      </c>
-      <c r="Q25">
-        <v>4.015682397992222</v>
-      </c>
-      <c r="R25">
-        <v>36.14114158192999</v>
-      </c>
-      <c r="S25">
-        <v>0.001312019150551549</v>
-      </c>
-      <c r="T25">
-        <v>0.001312019150551549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.201677</v>
-      </c>
-      <c r="I26">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J26">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>86.95798233333333</v>
-      </c>
-      <c r="N26">
-        <v>260.873947</v>
-      </c>
-      <c r="O26">
-        <v>0.1462828449356384</v>
-      </c>
-      <c r="P26">
-        <v>0.1462828449356383</v>
-      </c>
-      <c r="Q26">
-        <v>5.845808334346556</v>
-      </c>
-      <c r="R26">
-        <v>52.612275009119</v>
-      </c>
-      <c r="S26">
-        <v>0.001909964913796798</v>
-      </c>
-      <c r="T26">
-        <v>0.001909964913796798</v>
+        <v>0.004419576859065029</v>
       </c>
     </row>
   </sheetData>
